--- a/docs/Second Delivery/Análise Temporal Empírica.xlsx
+++ b/docs/Second Delivery/Análise Temporal Empírica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FEUP\A2S2\CAL\CAL_PROJ\docs\Second Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01487019-EBB9-45C0-9327-B516A7F3F8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897BB56-5F36-4072-8544-53098C90767C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{970A4CB3-18AF-4D0A-AD9B-69B3D5C3D13F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>size</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>duration held karp</t>
+  </si>
+  <si>
+    <t>Porto</t>
   </si>
 </sst>
 </file>
@@ -177,13 +180,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>95.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>630.4</c:v>
+                  <c:v>143.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7397.6</c:v>
+                  <c:v>628.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +513,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:f>Sheet1!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -528,18 +531,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$9</c:f>
+              <c:f>Sheet1!$B$8:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3852.2</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40288.800000000003</c:v>
+                  <c:v>13857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>466711.4</c:v>
+                  <c:v>51347.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,16 +1857,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2224,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B185A37C-E1BE-445E-8DC4-E3E83B290077}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2236,7 +2239,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2244,13 +2247,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2">
         <f>AVERAGE(H3:H7)</f>
-        <v>95.6</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -2261,6 +2264,9 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
       <c r="M2" t="s">
         <v>1</v>
       </c>
@@ -2270,147 +2276,198 @@
       <c r="O2" t="s">
         <v>3</v>
       </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>81</v>
       </c>
       <c r="B3">
         <f>AVERAGE(I3:I7)</f>
-        <v>630.4</v>
+        <v>143.4</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>762</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>7979</v>
+        <v>725</v>
+      </c>
+      <c r="K3">
+        <v>2929</v>
       </c>
       <c r="M3">
-        <v>4457</v>
+        <v>2145</v>
       </c>
       <c r="N3">
-        <v>33028</v>
+        <v>13560</v>
       </c>
       <c r="O3">
-        <v>489735</v>
+        <v>52583</v>
+      </c>
+      <c r="P3">
+        <v>22969</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>289</v>
       </c>
       <c r="B4">
         <f>AVERAGE(J3:J7)</f>
-        <v>7397.6</v>
+        <v>628.6</v>
       </c>
       <c r="H4">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>523</v>
+        <v>112</v>
       </c>
       <c r="J4">
-        <v>7394</v>
+        <v>625</v>
+      </c>
+      <c r="K4">
+        <v>2741</v>
       </c>
       <c r="M4">
-        <v>4826</v>
+        <v>1997</v>
       </c>
       <c r="N4">
-        <v>43015</v>
+        <v>14206</v>
       </c>
       <c r="O4">
-        <v>508799</v>
+        <v>56709</v>
+      </c>
+      <c r="P4">
+        <v>18878</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10176</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(K3:K7)</f>
+        <v>3294</v>
+      </c>
       <c r="H5">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>764</v>
+        <v>148</v>
       </c>
       <c r="J5">
-        <v>7805</v>
+        <v>537</v>
+      </c>
+      <c r="K5">
+        <v>2833</v>
       </c>
       <c r="M5">
-        <v>3357</v>
+        <v>2065</v>
       </c>
       <c r="N5">
-        <v>39434</v>
+        <v>14590</v>
       </c>
       <c r="O5">
-        <v>493892</v>
+        <v>49718</v>
+      </c>
+      <c r="P5">
+        <v>21852</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <v>607</v>
+      </c>
+      <c r="K6">
+        <v>3238</v>
+      </c>
+      <c r="M6">
+        <v>1857</v>
+      </c>
+      <c r="N6">
+        <v>14296</v>
+      </c>
+      <c r="O6">
+        <v>49196</v>
+      </c>
+      <c r="P6">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>82</v>
-      </c>
-      <c r="I6">
-        <v>474</v>
-      </c>
-      <c r="J6">
-        <v>6875</v>
-      </c>
-      <c r="M6">
-        <v>3308</v>
-      </c>
-      <c r="N6">
-        <v>45468</v>
-      </c>
-      <c r="O6">
-        <v>424949</v>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>195</v>
+      </c>
+      <c r="J7">
+        <v>649</v>
+      </c>
+      <c r="K7">
+        <v>4729</v>
+      </c>
+      <c r="M7">
+        <v>1826</v>
+      </c>
+      <c r="N7">
+        <v>12633</v>
+      </c>
+      <c r="O7">
+        <v>48533</v>
+      </c>
+      <c r="P7">
+        <v>22808</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>AVERAGE(M3:M7)</f>
-        <v>3852.2</v>
-      </c>
-      <c r="H7">
-        <v>92</v>
-      </c>
-      <c r="I7">
-        <v>629</v>
-      </c>
-      <c r="J7">
-        <v>6935</v>
-      </c>
-      <c r="M7">
-        <v>3313</v>
-      </c>
-      <c r="N7">
-        <v>40499</v>
-      </c>
-      <c r="O7">
-        <v>416182</v>
+        <v>1978</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>81</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>AVERAGE(N3:N7)</f>
-        <v>40288.800000000003</v>
+        <v>13857</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>289</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>AVERAGE(O3:O7)</f>
-        <v>466711.4</v>
+        <v>51347.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10176</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(P3:P7)</f>
+        <v>23321.8</v>
       </c>
     </row>
   </sheetData>
